--- a/Data/Processed/Angiosperms/missing_powo_ipni/Gentianaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Gentianaceae.xlsx
@@ -1587,7 +1587,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9595,7 +9595,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -9683,7 +9683,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -10035,7 +10035,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -12598,7 +12598,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 22(2): 346. 1896 [22 May 1896] </t>
+          <t>Bot. Jahrb. Syst. 22(2): 346. 1896 [22 May 1896]</t>
         </is>
       </c>
       <c r="J215" t="b">
@@ -12676,7 +12676,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -12686,7 +12686,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 11: 903. 1933 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 11: 903. 1933</t>
         </is>
       </c>
       <c r="J216" t="b">
@@ -12754,7 +12754,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -12764,7 +12764,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 2: 56. 1906 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 2: 56. 1906</t>
         </is>
       </c>
       <c r="J217" t="b">
